--- a/@Auto_Infomation.xlsx
+++ b/@Auto_Infomation.xlsx
@@ -21,27 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="44">
-  <si>
-    <t>樓層強度</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>柱</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>大梁</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>小梁</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>地梁</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="50">
   <si>
     <t>C</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -163,6 +143,39 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Conc</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Beam</t>
+  </si>
+  <si>
+    <t>SBeam</t>
+  </si>
+  <si>
+    <t>FBeam</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>崁入連續壁 (B)</t>
+  </si>
+  <si>
+    <t>SD490(Q)</t>
+  </si>
+  <si>
+    <t>SD550(K)</t>
+  </si>
+  <si>
+    <t>B4F~1F</t>
   </si>
 </sst>
 </file>
@@ -186,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,11 +288,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -305,16 +351,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -331,7 +377,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="361950"/>
+          <a:off x="7905750" y="3495675"/>
           <a:ext cx="5156200" cy="2933700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -343,15 +389,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>186588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -369,7 +415,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12334875" y="323850"/>
+          <a:off x="13773150" y="704850"/>
           <a:ext cx="2133600" cy="3863238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -661,735 +707,931 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.140625" style="9"/>
+    <col min="7" max="7" width="9.140625" style="9"/>
+    <col min="8" max="8" width="3.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
+        <f>IF(G2="","",G2)</f>
+        <v>PRF</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="str">
+        <f t="shared" ref="A3:A64" si="0">IF(G3="","",G3)</f>
+        <v>R3F</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>R2F</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>R1F</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20F</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>19F</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>18F</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>17F</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>16F</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>15F</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>14F</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>13F</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>12F</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11F</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10F</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>9F</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>8F</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>7F</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>6F</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5F</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4F</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>IF(H2="","",H2)</f>
-        <v>PRF</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3F</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2F</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1F</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A64" si="0">IF(H3="","",H3)</f>
-        <v>R3F</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>R2F</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>R1F</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>20F</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>19F</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>18F</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>17F</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>16F</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>15F</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>14F</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>13F</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>12F</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>11F</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>10F</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>9F</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>8F</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>7F</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>6F</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>B1F</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>5F</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>B2F</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>4F</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>B3F</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>3F</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="7" t="s">
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>B4F</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>2F</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>B5F</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1F</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>B1F</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>B2F</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>B3F</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>B4F</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>B5F</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1399,8 +1641,14 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1410,8 +1658,14 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1421,8 +1675,14 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1432,8 +1692,14 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1443,8 +1709,14 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1454,8 +1726,14 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1465,8 +1743,10 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1477,7 +1757,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1488,7 +1768,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1499,7 +1779,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1510,7 +1790,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1521,7 +1801,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1532,7 +1812,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1543,7 +1823,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1554,7 +1834,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1565,7 +1845,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1576,7 +1856,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1764,16 +2044,18 @@
       <c r="F64" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="3">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:A64">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F64">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
